--- a/Doc/Protoss.xlsx
+++ b/Doc/Protoss.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Content" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="360">
   <si>
     <t>序号</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -1427,6 +1427,46 @@
   </si>
   <si>
     <t>varchar(50)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>imge</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(300)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>imge</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品主图</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Remark</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(300)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Remark</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -4244,10 +4284,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4628,57 +4668,86 @@
       <c r="A14" s="2">
         <v>11</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
+      <c r="B14" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>351</v>
+      </c>
       <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
       <c r="F14" s="12" t="s">
-        <v>159</v>
+        <v>352</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="H14" s="10" t="s">
-        <v>63</v>
-      </c>
+        <v>353</v>
+      </c>
+      <c r="H14" s="10"/>
       <c r="I14" s="10">
         <v>0</v>
       </c>
       <c r="J14" s="10" t="s">
-        <v>177</v>
+        <v>354</v>
       </c>
       <c r="K14" s="4"/>
     </row>
-    <row r="15" spans="1:11" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>12</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
       <c r="D15" s="3"/>
-      <c r="E15" s="3">
-        <v>0</v>
-      </c>
+      <c r="E15" s="3"/>
       <c r="F15" s="12" t="s">
-        <v>205</v>
+        <v>159</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>204</v>
+        <v>176</v>
       </c>
       <c r="H15" s="10" t="s">
         <v>63</v>
       </c>
       <c r="I15" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="K15" s="4"/>
+    </row>
+    <row r="16" spans="1:11" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="2">
+        <v>13</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3">
+        <v>0</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="I16" s="10">
+        <v>1</v>
+      </c>
+      <c r="J16" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="K15" s="13" t="s">
+      <c r="K16" s="13" t="s">
         <v>206</v>
       </c>
     </row>
@@ -6053,10 +6122,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6235,52 +6304,81 @@
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>229</v>
+        <v>355</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>167</v>
+        <v>356</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3">
         <v>0</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>221</v>
+        <v>357</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>168</v>
+        <v>358</v>
       </c>
       <c r="H7" s="10"/>
       <c r="I7" s="10">
         <v>0</v>
       </c>
       <c r="J7" s="10" t="s">
-        <v>263</v>
+        <v>359</v>
       </c>
       <c r="K7" s="4"/>
     </row>
     <row r="8" spans="1:11" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
-        <v>5</v>
-      </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
+        <v>4</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>167</v>
+      </c>
       <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
+      <c r="E8" s="3">
+        <v>0</v>
+      </c>
       <c r="F8" s="12" t="s">
-        <v>254</v>
+        <v>221</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>257</v>
+        <v>168</v>
       </c>
       <c r="H8" s="10"/>
       <c r="I8" s="10">
         <v>0</v>
       </c>
       <c r="J8" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="K8" s="4"/>
+    </row>
+    <row r="9" spans="1:11" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="2">
+        <v>5</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10">
+        <v>0</v>
+      </c>
+      <c r="J9" s="10" t="s">
         <v>264</v>
       </c>
-      <c r="K8" s="4"/>
+      <c r="K9" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="3">
